--- a/reports/sea_raw_data/date_bussnies_teu.xlsx
+++ b/reports/sea_raw_data/date_bussnies_teu.xlsx
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1287.041666971711</v>
+        <v>1356.041666971711</v>
       </c>
     </row>
     <row r="81">
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>472.4866239342449</v>
+        <v>511.4866239342449</v>
       </c>
     </row>
     <row r="82">
